--- a/RestAPI/Indigo.xlsx
+++ b/RestAPI/Indigo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kb\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{942060CA-92EC-4661-8E8A-98395E355BED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7845B4A0-3B92-4BD9-8E68-046481B6190D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17790" xr2:uid="{8839BB8B-ED18-425E-A563-123E1DEB461A}"/>
+    <workbookView xWindow="14430" yWindow="0" windowWidth="10770" windowHeight="15300" xr2:uid="{8839BB8B-ED18-425E-A563-123E1DEB461A}"/>
   </bookViews>
   <sheets>
     <sheet name="Munka1" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="321">
   <si>
     <t>Keresés:</t>
   </si>
@@ -893,6 +893,117 @@
   </si>
   <si>
     <t>Sánc utca</t>
+  </si>
+  <si>
+    <t>Nagyszeben tér</t>
+  </si>
+  <si>
+    <t>Jégvirág utca</t>
+  </si>
+  <si>
+    <t>Óbuda, Bogdáni út</t>
+  </si>
+  <si>
+    <t>Bogdáni út</t>
+  </si>
+  <si>
+    <t>Raktár utca</t>
+  </si>
+  <si>
+    <t>Kiscelli utca</t>
+  </si>
+  <si>
+    <t>Tímár utca</t>
+  </si>
+  <si>
+    <t>Galagonya utca</t>
+  </si>
+  <si>
+    <t>Kolosy tér</t>
+  </si>
+  <si>
+    <t>Zsigmond tér</t>
+  </si>
+  <si>
+    <t>Császár-Komjádi uszoda</t>
+  </si>
+  <si>
+    <t>Báthory utca / Bajcsy-Zsilinszky út</t>
+  </si>
+  <si>
+    <t>Szent István Bazilika</t>
+  </si>
+  <si>
+    <t>Szentkirályi utca</t>
+  </si>
+  <si>
+    <t>Horváth Mihály tér</t>
+  </si>
+  <si>
+    <t>Muzsikus cigányok parkja</t>
+  </si>
+  <si>
+    <t>Orczy tér</t>
+  </si>
+  <si>
+    <t>Kőbányai út 31.</t>
+  </si>
+  <si>
+    <t>Eiffel Műhelyház</t>
+  </si>
+  <si>
+    <t>Egészségház</t>
+  </si>
+  <si>
+    <t>Liget tér</t>
+  </si>
+  <si>
+    <t>Kálvária tér</t>
+  </si>
+  <si>
+    <t>Ferdinánd híd (Izabella utca)</t>
+  </si>
+  <si>
+    <t>Szinyei Merse utca</t>
+  </si>
+  <si>
+    <t>Bajza utca</t>
+  </si>
+  <si>
+    <t>Munkácsy Mihály utca</t>
+  </si>
+  <si>
+    <t>Honvédkórház (Hősök tere M)</t>
+  </si>
+  <si>
+    <t>Állatkert</t>
+  </si>
+  <si>
+    <t>Kós Károly sétány</t>
+  </si>
+  <si>
+    <t>Bethesda utca</t>
+  </si>
+  <si>
+    <t>Ciklámen utca</t>
+  </si>
+  <si>
+    <t>Vakok intézete</t>
+  </si>
+  <si>
+    <t>Zugló vasútállomás (Hermina út)</t>
+  </si>
+  <si>
+    <t>Nyugati pályaudvar M (Podmaniczky utca)</t>
+  </si>
+  <si>
+    <t>Rippl-Rónai utca</t>
+  </si>
+  <si>
+    <t>Csobánc utca</t>
+  </si>
+  <si>
+    <t>Orczy út</t>
   </si>
 </sst>
 </file>
@@ -928,9 +1039,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
@@ -1249,10 +1361,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{865E1733-5F58-427B-A95F-A530F752BCF8}">
-  <dimension ref="A1:E283"/>
+  <dimension ref="A1:E320"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F38" sqref="F38"/>
+    <sheetView tabSelected="1" topLeftCell="A289" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B317" sqref="B317"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1273,7 +1385,7 @@
         <v>0</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>18</v>
+        <v>305</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -1288,7 +1400,7 @@
       </c>
       <c r="E2">
         <f>MATCH(E1,B:B,0)</f>
-        <v>18</v>
+        <v>305</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -3537,6 +3649,302 @@
       </c>
       <c r="B283" s="1" t="s">
         <v>283</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A284">
+        <v>284</v>
+      </c>
+      <c r="B284" s="1" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A285">
+        <v>285</v>
+      </c>
+      <c r="B285" s="1" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A286" s="2">
+        <v>286</v>
+      </c>
+      <c r="B286" s="1" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A287">
+        <v>287</v>
+      </c>
+      <c r="B287" s="1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A288">
+        <v>288</v>
+      </c>
+      <c r="B288" s="1" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A289">
+        <v>289</v>
+      </c>
+      <c r="B289" s="1" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A290">
+        <v>290</v>
+      </c>
+      <c r="B290" s="1" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A291">
+        <v>291</v>
+      </c>
+      <c r="B291" s="1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A292">
+        <v>292</v>
+      </c>
+      <c r="B292" s="1" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A293">
+        <v>293</v>
+      </c>
+      <c r="B293" s="1" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A294">
+        <v>294</v>
+      </c>
+      <c r="B294" s="1" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A295">
+        <v>295</v>
+      </c>
+      <c r="B295" s="1" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A296">
+        <v>296</v>
+      </c>
+      <c r="B296" s="1" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A297">
+        <v>297</v>
+      </c>
+      <c r="B297" s="1" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A298">
+        <v>298</v>
+      </c>
+      <c r="B298" s="1" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A299">
+        <v>299</v>
+      </c>
+      <c r="B299" s="1" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A300">
+        <v>300</v>
+      </c>
+      <c r="B300" s="1" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A301">
+        <v>301</v>
+      </c>
+      <c r="B301" s="1" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A302">
+        <v>302</v>
+      </c>
+      <c r="B302" s="1" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A303">
+        <v>303</v>
+      </c>
+      <c r="B303" s="1" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A304">
+        <v>304</v>
+      </c>
+      <c r="B304" s="1" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A305">
+        <v>305</v>
+      </c>
+      <c r="B305" s="1" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A306">
+        <v>306</v>
+      </c>
+      <c r="B306" s="1" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A307">
+        <v>307</v>
+      </c>
+      <c r="B307" s="1" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A308">
+        <v>308</v>
+      </c>
+      <c r="B308" s="1" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A309">
+        <v>309</v>
+      </c>
+      <c r="B309" s="1" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A310">
+        <v>310</v>
+      </c>
+      <c r="B310" s="1" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A311">
+        <v>311</v>
+      </c>
+      <c r="B311" s="1" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A312">
+        <v>312</v>
+      </c>
+      <c r="B312" s="1" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A313">
+        <v>313</v>
+      </c>
+      <c r="B313" s="1" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A314">
+        <v>314</v>
+      </c>
+      <c r="B314" s="1" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A315">
+        <v>315</v>
+      </c>
+      <c r="B315" s="1" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A316">
+        <v>316</v>
+      </c>
+      <c r="B316" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A317">
+        <v>317</v>
+      </c>
+      <c r="B317" s="1" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A318">
+        <v>318</v>
+      </c>
+      <c r="B318" s="1" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A319">
+        <v>319</v>
+      </c>
+      <c r="B319" s="1" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A320">
+        <v>320</v>
+      </c>
+      <c r="B320" s="1" t="s">
+        <v>320</v>
       </c>
     </row>
   </sheetData>
